--- a/Assets/TEST_IMPORT.xlsx
+++ b/Assets/TEST_IMPORT.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toino\OneDrive\Bureau\IIM\NarrativeProject_Team5\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E35498-A948-4F96-BDC2-03AE1DC25CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A98CE9-74E8-4A17-ADA4-D8D07A654F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille_1" sheetId="2" r:id="rId1"/>
     <sheet name="Feuille_2" sheetId="4" r:id="rId2"/>
-    <sheet name="Choix" sheetId="3" r:id="rId3"/>
-    <sheet name="Feuille 5" sheetId="5" r:id="rId4"/>
+    <sheet name="Feuille_3" sheetId="5" r:id="rId3"/>
+    <sheet name="Choix" sheetId="3" r:id="rId4"/>
     <sheet name="Feuille 6" sheetId="6" r:id="rId5"/>
     <sheet name="Feuille 7" sheetId="7" r:id="rId6"/>
     <sheet name="Feuille 8" sheetId="8" r:id="rId7"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Hi</t>
   </si>
   <si>
-    <t>SD_HitTable/ANIM_Shake</t>
-  </si>
-  <si>
     <t>PERSO_SAD</t>
   </si>
   <si>
@@ -217,9 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Which choice </t>
-  </si>
-  <si>
-    <t>Salut, blabalfkdnfdkfnbo</t>
   </si>
   <si>
     <t>ANIM_Shake</t>
@@ -497,7 +491,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A7" sqref="A7:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -557,18 +551,18 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -577,28 +571,28 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -607,34 +601,34 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -662,7 +656,7 @@
   <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -716,22 +710,24 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -740,27 +736,29 @@
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
@@ -768,32 +766,34 @@
     </row>
     <row r="5" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
@@ -805,7 +805,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{31B1376E-8245-41C0-800F-47486E12B64E}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{8E0A0AC2-3297-46EE-A6BD-B26A1CEF0288}">
       <formula1>"PERSO_ANGRY,PERSO_SAD,PERSO_HAPPY,ANIM,SOUND"</formula1>
     </dataValidation>
   </dataValidations>
@@ -814,6 +814,171 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" customWidth="1"/>
+    <col min="5" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" customWidth="1"/>
+    <col min="17" max="17" width="15.21875" customWidth="1"/>
+    <col min="19" max="19" width="13.44140625" customWidth="1"/>
+    <col min="20" max="20" width="9.88671875" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{4AF363F8-EB83-495B-9509-50EDE8542213}">
+      <formula1>"PERSO_ANGRY,PERSO_SAD,PERSO_HAPPY,ANIM,SOUND"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -853,22 +1018,22 @@
     </row>
     <row r="2" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -877,115 +1042,115 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -993,21 +1158,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1085,25 +1235,25 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/TEST_IMPORT.xlsx
+++ b/Assets/TEST_IMPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toino\OneDrive\Bureau\IIM\NarrativeProject_Team5\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A98CE9-74E8-4A17-ADA4-D8D07A654F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6DA751-85A1-4937-A75B-C239F63E8C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille_1" sheetId="2" r:id="rId1"/>
@@ -114,9 +114,6 @@
     <t>Choix 1</t>
   </si>
   <si>
-    <t>Positif[4]</t>
-  </si>
-  <si>
     <t>Négatif[5]</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>SD_HitTable</t>
+  </si>
+  <si>
+    <t>Positif|4|Blabla</t>
   </si>
 </sst>
 </file>
@@ -490,8 +490,8 @@
   </sheetPr>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -551,10 +551,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -589,10 +589,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -622,10 +622,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -716,10 +716,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -787,10 +787,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -881,10 +881,10 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="13.2" x14ac:dyDescent="0.25">
@@ -919,10 +919,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -952,10 +952,10 @@
         <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -985,7 +985,9 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1021,19 +1023,19 @@
         <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -1042,115 +1044,115 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1235,25 +1237,25 @@
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
